--- a/Automation_SIT_Testing_Task_List.xlsx
+++ b/Automation_SIT_Testing_Task_List.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arora/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9EA0A-1ECE-C340-A1F7-5B8F6BEBBEAE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948EA01A-5422-C148-BBDA-F288ACAE2280}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="182">
   <si>
     <t>Task ID</t>
   </si>
@@ -372,6 +373,653 @@
   </si>
   <si>
     <t>8. SIT Test Execution &amp; Defect Management</t>
+  </si>
+  <si>
+    <t>11. Test Coverage Expansion</t>
+  </si>
+  <si>
+    <t>T11.1</t>
+  </si>
+  <si>
+    <t>Automated Test Coverage Analysis</t>
+  </si>
+  <si>
+    <t>Review overall test coverage to ensure all validation aspects are automated, including validation for Silver and Gold layers.</t>
+  </si>
+  <si>
+    <t>T11.2</t>
+  </si>
+  <si>
+    <t>Extend Test Coverage for Silver/Gold Layer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add test cases to the automated framework specifically for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Silver and Gold layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to validate business-critical data.</t>
+    </r>
+  </si>
+  <si>
+    <t>T11.3</t>
+  </si>
+  <si>
+    <t>Review Test Coverage with Stakeholders</t>
+  </si>
+  <si>
+    <t>Align test coverage with stakeholders to confirm all necessary validations are included and automated.</t>
+  </si>
+  <si>
+    <t>T11.4</t>
+  </si>
+  <si>
+    <t>Add Coverage for Outbound Feeds</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add automated test cases for validating </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outbound feeds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the ODS to ensure data integrity.</t>
+    </r>
+  </si>
+  <si>
+    <t>12. Source DB &amp; System Access Setup</t>
+  </si>
+  <si>
+    <t>T12.1</t>
+  </si>
+  <si>
+    <t>Oracle DB Access</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure access to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oracle Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for extracting legacy data to validate against ODS.</t>
+    </r>
+  </si>
+  <si>
+    <t>T12.2</t>
+  </si>
+  <si>
+    <t>Guidewire UI Access Setup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide access to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guidewire UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for validating data transformations and business logic.</t>
+    </r>
+  </si>
+  <si>
+    <t>T12.3</t>
+  </si>
+  <si>
+    <t>S3 Access for Staging</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure access to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S3 buckets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for data validation between raw and ODS layers.</t>
+    </r>
+  </si>
+  <si>
+    <t>T12.4</t>
+  </si>
+  <si>
+    <t>Jump Server Access</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure access to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jump Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for secure connections during SIT testing.</t>
+    </r>
+  </si>
+  <si>
+    <t>13. DevOps Setup &amp; CI/CD Integration</t>
+  </si>
+  <si>
+    <t>T13.1</t>
+  </si>
+  <si>
+    <t>DevOps Feasibility for CI/CD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Investigate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CI/CD integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for automated testing to ensure continuous deployment pipelines are effective.</t>
+    </r>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>T13.2</t>
+  </si>
+  <si>
+    <t>Repository Creation in DevOps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set up a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GitHub/DevOps repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to store all automation scripts, configurations, and test artifacts.</t>
+    </r>
+  </si>
+  <si>
+    <t>T13.3</t>
+  </si>
+  <si>
+    <t>Set up CI/CD Pipelines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CI/CD pipelines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure DevOps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for automated testing integration with deployment processes.</t>
+    </r>
+  </si>
+  <si>
+    <t>14. Data Integration Testing</t>
+  </si>
+  <si>
+    <t>T14.1</t>
+  </si>
+  <si>
+    <t>Data Integration Testing (S3 ↔ ODS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure automated testing of data from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S3 staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ODS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and validate data integrity and transformations.</t>
+    </r>
+  </si>
+  <si>
+    <t>T14.2</t>
+  </si>
+  <si>
+    <t>Data Integration Testing (PostgreSQL ↔ ODS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate data from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read Replica PostgreSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ODS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for correctness and consistency.</t>
+    </r>
+  </si>
+  <si>
+    <t>T14.3</t>
+  </si>
+  <si>
+    <t>Data Integration Testing (S3 ↔ ODS_VIEWS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure consistency and correctness of data between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S3 staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ODS_VIEWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tables.</t>
+    </r>
+  </si>
+  <si>
+    <t>15. Automation Maintenance &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>T15.1</t>
+  </si>
+  <si>
+    <t>Automation Script Maintenance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set up a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maintenance plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for updating scripts based on any changes in source data or ODS schemas.</t>
+    </r>
+  </si>
+  <si>
+    <t>T15.2</t>
+  </si>
+  <si>
+    <t>Monitor Automation Results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regularly monitor and ensure that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automation results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are generated and reports are shared with stakeholders.</t>
+    </r>
+  </si>
+  <si>
+    <t>16. Final Testing &amp; SIT Execution</t>
+  </si>
+  <si>
+    <t>T16.1</t>
+  </si>
+  <si>
+    <t>SIT Execution &amp; Test Suite Running</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Execute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full SIT testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> suite, including automated and manual validation, for end-to-end integration.</t>
+    </r>
+  </si>
+  <si>
+    <t>T16.2</t>
+  </si>
+  <si>
+    <t>Defect Tracking &amp; Re-testing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all defects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are logged, tracked in Jira, and re-tested once fixed.</t>
+    </r>
+  </si>
+  <si>
+    <t>QA Tester / Automation Engineer</t>
+  </si>
+  <si>
+    <t>T16.3</t>
+  </si>
+  <si>
+    <t>Final SIT Sign-off</t>
+  </si>
+  <si>
+    <t>Final review, sign-off from stakeholders, and confirmation of test completion.</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF62D99-D0C7-9344-8FA7-1192FA4BED77}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2127,4 +2775,509 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C486858-4D80-5543-8682-A3A01713D7A1}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45736</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45740</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45743</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45744</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45734</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45736</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45737</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45738</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45738</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45741</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45742</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45746</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45749</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45752</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45755</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45758</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45788</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45793</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45797</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>